--- a/BEAST/beast_equip/equipment_list.xlsx
+++ b/BEAST/beast_equip/equipment_list.xlsx
@@ -181,7 +181,7 @@
     <t>Model 700 spot welder</t>
   </si>
   <si>
-    <t>To purchased</t>
+    <t>To purchase</t>
   </si>
 </sst>
 </file>
@@ -256,13 +256,7 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -270,6 +264,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,7 +574,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,326 +603,326 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>11</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>12</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>13</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>14</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>15</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9">
-        <v>1</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>4</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>7</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <v>12</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>8</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="2">
         <v>9</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>4</v>
       </c>
-      <c r="E22" s="4"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+    <row r="25" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="6">
         <v>0</v>
       </c>
     </row>
@@ -951,45 +951,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>23</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>6</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+    <row r="29" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>24</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>17</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
         <v>25</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>1360</v>
       </c>
     </row>
@@ -1015,45 +1015,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
         <v>28</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>44</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+    <row r="34" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
         <v>29</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>40</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+    <row r="35" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
         <v>30</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>2880</v>
       </c>
     </row>
@@ -1086,65 +1086,65 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39" s="2">
         <v>34</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="4">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4"/>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="2">
         <v>35</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="4">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4"/>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41" s="2">
         <v>36</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="2">
         <v>31</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4"/>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
